--- a/output/feature importance linear.xlsx
+++ b/output/feature importance linear.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Feature</t>
   </si>
@@ -25,10 +25,22 @@
     <t>線條方向</t>
   </si>
   <si>
+    <t>CVLT-SF-cued</t>
+  </si>
+  <si>
     <t>視覺疾病</t>
   </si>
   <si>
-    <t>CVLT-SF-cued</t>
+    <t>握力左</t>
+  </si>
+  <si>
+    <t>TUG_Return_c</t>
+  </si>
+  <si>
+    <t>GDS-15</t>
+  </si>
+  <si>
+    <t>心臟疾病</t>
   </si>
   <si>
     <t>性別</t>
@@ -37,94 +49,61 @@
     <t>TMT-B正確數</t>
   </si>
   <si>
+    <t>年齡</t>
+  </si>
+  <si>
     <t>Abeta1-42 Mean</t>
   </si>
   <si>
-    <t>TUG_Return_c</t>
-  </si>
-  <si>
-    <t>心臟疾病</t>
-  </si>
-  <si>
-    <t>TUG_MidTurn_c</t>
+    <t>CVLT-SF-10MIN</t>
+  </si>
+  <si>
+    <t>教育年數</t>
   </si>
   <si>
     <t>CVLT-SF-30S</t>
   </si>
   <si>
-    <t>年齡</t>
-  </si>
-  <si>
-    <t>CVLT-SF-10MIN</t>
+    <t>TMT-A</t>
   </si>
   <si>
     <t>cadence_c</t>
   </si>
   <si>
-    <t>高血壓</t>
-  </si>
-  <si>
-    <t>神經系統疾病</t>
-  </si>
-  <si>
     <t>Left Stride Duration_c</t>
   </si>
   <si>
-    <t>握力左</t>
+    <t>TUG_StandToSit_m</t>
+  </si>
+  <si>
+    <t>fall次數</t>
+  </si>
+  <si>
+    <t>TUG_SitToStand_m</t>
+  </si>
+  <si>
+    <t>cadence(step/min)</t>
+  </si>
+  <si>
+    <t>TUG_StandToSit_c</t>
   </si>
   <si>
     <t>Tau Mean</t>
   </si>
   <si>
-    <t>TUG_StandToSit_c</t>
-  </si>
-  <si>
-    <t>教育年數</t>
-  </si>
-  <si>
-    <t>MMSE</t>
+    <t>TUG_MidTurn_m</t>
+  </si>
+  <si>
+    <t>CVLT-SF</t>
+  </si>
+  <si>
+    <t>BMI</t>
   </si>
   <si>
     <t>Right Stride Duration_c</t>
   </si>
   <si>
-    <t>TUG_MidTurn_m</t>
-  </si>
-  <si>
-    <t>GDS-15</t>
-  </si>
-  <si>
-    <t>cadence(step/min)</t>
-  </si>
-  <si>
-    <t>握力右</t>
-  </si>
-  <si>
-    <t>TMT-A</t>
-  </si>
-  <si>
-    <t>CVLT-SF</t>
-  </si>
-  <si>
-    <t>TUG_SitToStand_m</t>
-  </si>
-  <si>
-    <t>波士頓命名(正確+提示後正確)</t>
-  </si>
-  <si>
-    <t>fall次數</t>
-  </si>
-  <si>
-    <t>TUG_StandToSit_m</t>
-  </si>
-  <si>
-    <t>BMI</t>
-  </si>
-  <si>
     <t>TUG_Forward_c</t>
-  </si>
-  <si>
-    <t>speed(m/s)</t>
   </si>
 </sst>
 </file>
@@ -482,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -504,7 +483,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1.183676087977921</v>
+        <v>1.502710311895841</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -515,7 +494,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>-1.146589207032888</v>
+        <v>1.378148099625823</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -526,7 +505,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>1.062480856070793</v>
+        <v>-1.168826001051716</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -537,7 +516,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>-0.7763469612160441</v>
+        <v>1.076021858448598</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -548,7 +527,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>-0.7052847604579134</v>
+        <v>1.043803406566411</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -559,7 +538,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.7011811600299731</v>
+        <v>1.017877692872267</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -570,7 +549,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.7003660027159188</v>
+        <v>-0.9680865315493855</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -581,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>-0.6595442867298615</v>
+        <v>-0.8964663476842345</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -592,7 +571,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.6039622331839309</v>
+        <v>-0.8701482753154907</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -603,7 +582,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>-0.5971489377382572</v>
+        <v>0.8037378557562558</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -614,7 +593,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.5922015632549141</v>
+        <v>0.7346620457438209</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -625,7 +604,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>-0.5916276788481273</v>
+        <v>-0.7253601838130748</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -636,7 +615,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>-0.5803506978152928</v>
+        <v>0.6150682460795664</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -647,7 +626,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.4551671131600792</v>
+        <v>-0.5363715911876717</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -658,7 +637,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>-0.4408497242044692</v>
+        <v>-0.4851675107893146</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -669,7 +648,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.4334234697004496</v>
+        <v>-0.4657307051307301</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -680,7 +659,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.4276065782049783</v>
+        <v>0.405229080619762</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -691,7 +670,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.4183521690540881</v>
+        <v>0.3978600188914091</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -702,7 +681,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>-0.3828466775007289</v>
+        <v>-0.3779509611948829</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -713,7 +692,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.356091115893826</v>
+        <v>0.3654466343403971</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -724,7 +703,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>-0.3425546688576331</v>
+        <v>-0.3558786561956168</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -735,7 +714,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.3236387030897123</v>
+        <v>-0.3507603020297255</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -746,7 +725,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>-0.3195409260402852</v>
+        <v>0.3263017031872762</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -757,7 +736,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.3148521770489358</v>
+        <v>-0.3176481374595688</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -768,7 +747,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>-0.3132109142388232</v>
+        <v>-0.3025708507736621</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -779,7 +758,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.2757337941109798</v>
+        <v>-0.2743338542833797</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -790,7 +769,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>-0.2256702632223222</v>
+        <v>0.2703095584093702</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -801,84 +780,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>-0.1846890526380106</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30">
-        <v>0.1687866079939905</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-      <c r="C31">
-        <v>-0.1651802517688552</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
-      </c>
-      <c r="C32">
-        <v>-0.1126371034228618</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
-      </c>
-      <c r="B33" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33">
-        <v>0.09024176273988604</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
-      </c>
-      <c r="B34" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34">
-        <v>-0.03804969922037545</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
-      </c>
-      <c r="B35" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35">
-        <v>-0.03581762713721388</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
-      </c>
-      <c r="B36" t="s">
-        <v>36</v>
-      </c>
-      <c r="C36">
-        <v>-0.01688061312486933</v>
+        <v>0.0789980217453619</v>
       </c>
     </row>
   </sheetData>
